--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-535180.2794911893</v>
+        <v>-537661.1993166475</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>337.583532527274</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838813</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335565</v>
+        <v>327.7628950335567</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>355.0102234851355</v>
       </c>
       <c r="F11" t="n">
-        <v>379.955899154585</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>263.3893575927723</v>
+        <v>384.0015790663272</v>
       </c>
       <c r="H11" t="n">
-        <v>267.687617800194</v>
+        <v>267.6876178001942</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579947</v>
+        <v>14.65678318579962</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104935</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524938</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>300.8321118830085</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913428</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689273</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247809</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948108</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115015</v>
       </c>
       <c r="D13" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594429</v>
       </c>
       <c r="F13" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271943</v>
+        <v>53.42068368281375</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271161</v>
+        <v>69.43227382271178</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292085</v>
+        <v>62.01200608292101</v>
       </c>
       <c r="S13" t="n">
-        <v>22.61704287595148</v>
+        <v>162.8488787443156</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>192.6288026890429</v>
       </c>
       <c r="U13" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184866</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>225.2174967367017</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494647</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>191.6645067649685</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>300.9136172357405</v>
+        <v>355.8136950763543</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.3527451838813</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>327.7628950335567</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>355.0102234851355</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545852</v>
       </c>
       <c r="G14" t="n">
-        <v>384.0015790663271</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001942</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579962</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104952</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524939</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717757</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>1.79369892012361</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913428</v>
       </c>
       <c r="Y14" t="n">
-        <v>359.3177920689271</v>
+        <v>359.3177920689273</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>85.66144334166677</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>119.5138160594429</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358049</v>
       </c>
       <c r="G16" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271945</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292091</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443156</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>192.6288026890429</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>259.2916916184866</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367017</v>
       </c>
       <c r="W16" t="n">
-        <v>259.6028517494645</v>
+        <v>259.6028517494647</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019108</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.86162954291954</v>
+        <v>191.6645067649685</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>291.3776085652887</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E17" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245679</v>
+        <v>9.362935956138255</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339011</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531829</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W17" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X17" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y17" t="n">
-        <v>270.6681457022197</v>
+        <v>312.3426554503347</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>168.3363911711805</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290892</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249344</v>
       </c>
       <c r="E19" t="n">
-        <v>134.9383736358141</v>
+        <v>72.53867944085026</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721233</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330931</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860186</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998938</v>
+        <v>212.316554999894</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X19" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833183</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652887</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H20" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U20" t="n">
-        <v>97.90474570419563</v>
+        <v>175.176066494987</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X20" t="n">
-        <v>295.83581747275</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503347</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290892</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249344</v>
       </c>
       <c r="E22" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085026</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721233</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330931</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860186</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411916</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432838</v>
       </c>
       <c r="S22" t="n">
-        <v>178.2734363206866</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998938</v>
+        <v>212.316554999894</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833183</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>207.089064341338</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577617</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652885</v>
+        <v>291.3776085652887</v>
       </c>
       <c r="D23" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7877584149641</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665429</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359924</v>
+        <v>332.9807625359925</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477344</v>
+        <v>337.0264424477346</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816016</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245692</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339011</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U23" t="n">
-        <v>177.0998887531829</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V23" t="n">
-        <v>253.8569752644159</v>
+        <v>253.856975264416</v>
       </c>
       <c r="W23" t="n">
-        <v>275.345685511694</v>
+        <v>275.3456855116941</v>
       </c>
       <c r="X23" t="n">
-        <v>295.83581747275</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503345</v>
+        <v>312.3426554503347</v>
       </c>
     </row>
     <row r="24">
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734102899</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762184</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290879</v>
+        <v>93.35153789290892</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249332</v>
+        <v>74.72018981249344</v>
       </c>
       <c r="E25" t="n">
-        <v>72.53867944085013</v>
+        <v>72.53867944085026</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721221</v>
+        <v>71.52576481721233</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330919</v>
+        <v>92.13052505330931</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860174</v>
+        <v>70.85973170860187</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411919</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432829</v>
+        <v>15.03686946432842</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.873742125723</v>
       </c>
       <c r="T25" t="n">
-        <v>208.053360265414</v>
+        <v>145.6536660704503</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948554</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181091</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308721</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833181</v>
+        <v>151.8143721833183</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463759</v>
       </c>
     </row>
     <row r="26">
@@ -2792,22 +2792,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958322</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210275</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
         <v>204.0200353403094</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996197</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797656</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433863</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572817</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124705</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145472</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3010,10 +3010,10 @@
         <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179978</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
         <v>171.6095167335022</v>
@@ -3026,16 +3026,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C32" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
         <v>359.9009091231189</v>
@@ -3044,7 +3044,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958336</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
         <v>302.2658320988205</v>
@@ -3095,7 +3095,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797668</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433876</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957283</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U35" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="36">
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383229</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052288</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846422</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092322</v>
+        <v>68.34108803092327</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621577</v>
+        <v>47.07029468621583</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333689</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>239.4866237999598</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>231.0452163728799</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007088</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V38" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W38" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X38" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279486</v>
+        <v>288.5532184279487</v>
       </c>
     </row>
     <row r="39">
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383229</v>
+        <v>82.14725995383235</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052283</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010735</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846416</v>
+        <v>90.95618068285802</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482624</v>
+        <v>47.73632779482629</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -3679,7 +3679,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333694</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
         <v>188.5271179775079</v>
       </c>
       <c r="V40" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>188.838278108486</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>171.5641732435934</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239898</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T41" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
         <v>153.310451730797</v>
@@ -3895,22 +3895,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C43" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846416</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482624</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092322</v>
+        <v>111.8803261135843</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -3943,22 +3943,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>240.8189236182269</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V43" t="n">
         <v>154.452923095723</v>
       </c>
       <c r="W43" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>128.0249351609322</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007083</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115151</v>
+        <v>106.2332499115152</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383229</v>
+        <v>82.1472599538323</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052283</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010735</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482624</v>
+        <v>91.2755658774874</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621577</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333689</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>154.452923095723</v>
@@ -4198,10 +4198,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y46" t="n">
-        <v>163.1068713883842</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
   </sheetData>
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.221991434247</v>
+        <v>1771.029130326016</v>
       </c>
       <c r="C11" t="n">
-        <v>1691.221991434247</v>
+        <v>1429.258680645328</v>
       </c>
       <c r="D11" t="n">
-        <v>1360.14836008722</v>
+        <v>1098.185049298301</v>
       </c>
       <c r="E11" t="n">
-        <v>1001.5521747487</v>
+        <v>739.5888639597804</v>
       </c>
       <c r="F11" t="n">
-        <v>617.758337218816</v>
+        <v>739.5888639597804</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645001</v>
+        <v>351.7084810645004</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299097</v>
+        <v>81.31694793299113</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
         <v>2120.555556060172</v>
@@ -5060,31 +5060,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.50722039599</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039937</v>
+        <v>3146.820141253118</v>
       </c>
       <c r="U11" t="n">
-        <v>3063.721540039937</v>
+        <v>3146.820141253118</v>
       </c>
       <c r="V11" t="n">
-        <v>2759.85071995609</v>
+        <v>3146.820141253118</v>
       </c>
       <c r="W11" t="n">
-        <v>2759.85071995609</v>
+        <v>2821.243553242727</v>
       </c>
       <c r="X11" t="n">
-        <v>2413.577028954734</v>
+        <v>2474.969862241371</v>
       </c>
       <c r="Y11" t="n">
-        <v>2050.629764238645</v>
+        <v>2112.022597525282</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811093</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999823</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.156415538731</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332755</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601605</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064616</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>760.7584402581841</v>
+        <v>572.7690351314504</v>
       </c>
       <c r="C13" t="n">
-        <v>619.0143245900009</v>
+        <v>431.0249194632672</v>
       </c>
       <c r="D13" t="n">
-        <v>496.0897524373889</v>
+        <v>431.0249194632672</v>
       </c>
       <c r="E13" t="n">
-        <v>375.3687261147195</v>
+        <v>310.3038931405977</v>
       </c>
       <c r="F13" t="n">
-        <v>255.6708458765328</v>
+        <v>190.6060129024113</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>190.6060129024113</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>136.6457263541145</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705054</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N13" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O13" t="n">
-        <v>1776.98242222985</v>
+        <v>1776.982422229849</v>
       </c>
       <c r="P13" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
-        <v>2077.863719075786</v>
+        <v>2077.863719075785</v>
       </c>
       <c r="S13" t="n">
-        <v>2055.018221221289</v>
+        <v>1913.369902162334</v>
       </c>
       <c r="T13" t="n">
-        <v>1860.443673050539</v>
+        <v>1718.795353991584</v>
       </c>
       <c r="U13" t="n">
-        <v>1598.532873435906</v>
+        <v>1456.884554376951</v>
       </c>
       <c r="V13" t="n">
-        <v>1371.040452489743</v>
+        <v>1229.392133430788</v>
       </c>
       <c r="W13" t="n">
-        <v>1108.815349712507</v>
+        <v>967.1670306535508</v>
       </c>
       <c r="X13" t="n">
-        <v>1108.815349712507</v>
+        <v>766.369547015257</v>
       </c>
       <c r="Y13" t="n">
-        <v>915.2148378287001</v>
+        <v>572.7690351314504</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1194.761618038843</v>
+        <v>1766.94258496062</v>
       </c>
       <c r="C14" t="n">
-        <v>852.9911683581549</v>
+        <v>1425.172135279932</v>
       </c>
       <c r="D14" t="n">
-        <v>852.9911683581549</v>
+        <v>1094.098503932905</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9911683581549</v>
+        <v>735.5023185943844</v>
       </c>
       <c r="F14" t="n">
-        <v>469.197330828271</v>
+        <v>351.7084810645003</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299113</v>
+        <v>351.7084810645003</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299113</v>
+        <v>81.31694793299127</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218357</v>
       </c>
       <c r="J14" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395989</v>
+        <v>3242.507220395991</v>
       </c>
       <c r="T14" t="n">
-        <v>3063.721540039935</v>
+        <v>3063.721540039937</v>
       </c>
       <c r="U14" t="n">
-        <v>2837.383130573495</v>
+        <v>2837.383130573497</v>
       </c>
       <c r="V14" t="n">
-        <v>2533.512310489648</v>
+        <v>2835.571313482463</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479257</v>
+        <v>2835.571313482463</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.662031477901</v>
+        <v>2489.297622481107</v>
       </c>
       <c r="Y14" t="n">
-        <v>1498.714766761813</v>
+        <v>2126.350357765019</v>
       </c>
     </row>
     <row r="15">
@@ -5331,70 +5331,70 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064633</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>778.3446374711294</v>
+        <v>635.4074251141986</v>
       </c>
       <c r="C16" t="n">
-        <v>636.6005218029464</v>
+        <v>548.8807146680706</v>
       </c>
       <c r="D16" t="n">
-        <v>636.6005218029464</v>
+        <v>425.9561425154585</v>
       </c>
       <c r="E16" t="n">
-        <v>515.879495480277</v>
+        <v>305.2351161927889</v>
       </c>
       <c r="F16" t="n">
-        <v>396.1816152420903</v>
+        <v>185.5372359546021</v>
       </c>
       <c r="G16" t="n">
-        <v>255.6708458765329</v>
+        <v>185.5372359546021</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6457263541144</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
         <v>138.2856940003741</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705056</v>
+        <v>368.9238220705054</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402569</v>
+        <v>712.1345656402566</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.001878188181</v>
+        <v>1451.00187818818</v>
       </c>
       <c r="O16" t="n">
         <v>1776.982422229849</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784764</v>
+        <v>2036.240867784763</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1976.008292145083</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.369902162335</v>
+        <v>1781.433743974333</v>
       </c>
       <c r="U16" t="n">
-        <v>1651.459102547703</v>
+        <v>1519.5229443597</v>
       </c>
       <c r="V16" t="n">
-        <v>1423.966681601539</v>
+        <v>1292.030523413536</v>
       </c>
       <c r="W16" t="n">
-        <v>1161.741578824302</v>
+        <v>1029.805420636299</v>
       </c>
       <c r="X16" t="n">
-        <v>960.9440951860086</v>
+        <v>829.0079369980052</v>
       </c>
       <c r="Y16" t="n">
-        <v>932.8010350416455</v>
+        <v>635.4074251141986</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1560.999521934037</v>
+        <v>1855.320338666653</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535083</v>
+        <v>1277.375523535085</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446363</v>
+        <v>966.2289711446371</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628257</v>
+        <v>629.8847665628264</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156194</v>
       </c>
       <c r="H17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
         <v>589.2106210810553</v>
@@ -5522,43 +5522,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3289.956853344062</v>
+        <v>3316.148310542367</v>
       </c>
       <c r="T17" t="n">
-        <v>3158.620805936082</v>
+        <v>3316.148310542367</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>3316.148310542367</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>3059.727123406593</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2781.600168344276</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2482.776110290993</v>
       </c>
       <c r="Y17" t="n">
-        <v>1872.957661790362</v>
+        <v>2167.278478522978</v>
       </c>
     </row>
     <row r="18">
@@ -5568,19 +5568,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
@@ -5589,25 +5589,25 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>632.1517731235555</v>
+        <v>569.1217789872293</v>
       </c>
       <c r="C19" t="n">
-        <v>537.8572904034456</v>
+        <v>474.8272962671192</v>
       </c>
       <c r="D19" t="n">
-        <v>462.3823511989069</v>
+        <v>399.3523570625804</v>
       </c>
       <c r="E19" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879841</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978707</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604104</v>
+        <v>89.19609340604119</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q19" t="n">
         <v>1927.294548088493</v>
@@ -5698,7 +5698,7 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.061607088441</v>
+        <v>1795.061607088442</v>
       </c>
       <c r="T19" t="n">
         <v>1647.936691865764</v>
@@ -5710,13 +5710,13 @@
         <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.657267371952</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>885.3094166817312</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y19" t="n">
-        <v>739.1585377459982</v>
+        <v>739.1585377459975</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>1855.320338666652</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1560.999521934038</v>
       </c>
       <c r="D20" t="n">
         <v>1277.375523535084</v>
@@ -5738,58 +5738,58 @@
         <v>966.2289711446367</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8847665628261</v>
+        <v>629.884766562826</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156192</v>
+        <v>289.4540166156194</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344063</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3194.269774201191</v>
       </c>
       <c r="U20" t="n">
-        <v>3059.727123406592</v>
+        <v>3017.324252489083</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406592</v>
+        <v>2760.90306535331</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344275</v>
+        <v>2482.776110290992</v>
       </c>
       <c r="X20" t="n">
         <v>2482.776110290992</v>
@@ -5805,19 +5805,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G21" t="n">
         <v>176.0213023927779</v>
@@ -5826,28 +5826,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
@@ -5862,7 +5862,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,49 +5884,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872283</v>
+        <v>569.1217789872293</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671184</v>
+        <v>474.8272962671192</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625797</v>
+        <v>399.3523570625804</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879836</v>
+        <v>326.0809636879841</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978703</v>
+        <v>253.8327163978707</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803863</v>
+        <v>160.7715799803865</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604106</v>
+        <v>89.19609340604119</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q22" t="n">
         <v>1927.294548088493</v>
@@ -5935,25 +5935,25 @@
         <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952114</v>
+        <v>1795.061607088442</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356243</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X22" t="n">
-        <v>822.279422545404</v>
+        <v>885.3094166817307</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096709</v>
+        <v>676.1285436096721</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1862.185977056949</v>
+        <v>1862.185977056951</v>
       </c>
       <c r="C23" t="n">
-        <v>1567.865160324335</v>
+        <v>1567.865160324336</v>
       </c>
       <c r="D23" t="n">
-        <v>1284.241161925382</v>
+        <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349345</v>
+        <v>973.0946095349359</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531244</v>
+        <v>636.7504049531253</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059182</v>
+        <v>296.3196550059184</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248243</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248243</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815078</v>
+        <v>262.2568857815079</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713543</v>
+        <v>596.0762594713544</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
@@ -6002,37 +6002,37 @@
         <v>2127.42119445047</v>
       </c>
       <c r="O23" t="n">
-        <v>2630.393665329807</v>
+        <v>2966.809946454458</v>
       </c>
       <c r="P23" t="n">
-        <v>3343.748752776753</v>
+        <v>3361.584312811637</v>
       </c>
       <c r="Q23" t="n">
-        <v>3609.870674567316</v>
+        <v>3609.870674567319</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124119</v>
+        <v>3668.887741124121</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859011</v>
+        <v>3633.238772859013</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.90272545103</v>
+        <v>3501.902725451032</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932663</v>
+        <v>3323.013948932666</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796889</v>
+        <v>3066.592761796891</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734572</v>
+        <v>2788.465806734574</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681289</v>
+        <v>2489.641748681291</v>
       </c>
       <c r="Y23" t="n">
-        <v>2174.144116913274</v>
+        <v>2174.144116913276</v>
       </c>
     </row>
     <row r="24">
@@ -6042,10 +6042,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714076</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902806</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
         <v>625.0220539290294</v>
@@ -6054,25 +6054,25 @@
         <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504589</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830773</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094479</v>
+        <v>92.38504642094446</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248243</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130999</v>
+        <v>167.0550243130998</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934471</v>
+        <v>405.3192232934469</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061125</v>
+        <v>772.0173836061123</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6090,10 +6090,10 @@
         <v>2571.91918092364</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
         <v>2249.693940687491</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775272</v>
+        <v>575.9874173775282</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574174</v>
+        <v>481.6929346574182</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528787</v>
+        <v>406.2179954528794</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782826</v>
+        <v>332.9466020782831</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881692</v>
+        <v>260.6983547881697</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706852</v>
+        <v>167.6372183706855</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634001</v>
+        <v>96.0617317963402</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248237</v>
+        <v>73.37775482248243</v>
       </c>
       <c r="J25" t="n">
-        <v>118.5003872694179</v>
+        <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182944</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667904</v>
+        <v>639.0473686667905</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6175,22 +6175,22 @@
         <v>1801.92724547874</v>
       </c>
       <c r="T25" t="n">
-        <v>1591.772336119736</v>
+        <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453177</v>
+        <v>1377.311169453179</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455087</v>
+        <v>1197.268381455089</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259233</v>
+        <v>982.4929116259248</v>
       </c>
       <c r="X25" t="n">
-        <v>829.145060935703</v>
+        <v>829.1450609357042</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999699</v>
+        <v>682.994181999971</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>393.2994530991692</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>727.1188267890157</v>
       </c>
       <c r="L26" t="n">
-        <v>1054.87963479397</v>
+        <v>1178.153040037424</v>
       </c>
       <c r="M26" t="n">
-        <v>2033.429937623799</v>
+        <v>1711.684944709349</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2258.463761768131</v>
       </c>
       <c r="O26" t="n">
-        <v>3355.268050164796</v>
+        <v>2761.436232647468</v>
       </c>
       <c r="P26" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676538</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913842</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G28" t="n">
         <v>229.7905149643394</v>
@@ -6379,16 +6379,16 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982172</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350173</v>
@@ -6412,7 +6412,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
         <v>1711.385138644068</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388315</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467804</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>393.2994530991701</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>727.1188267890166</v>
+        <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1178.153040037425</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>1711.68494470935</v>
+        <v>1755.817188486248</v>
       </c>
       <c r="N29" t="n">
-        <v>2258.463761768132</v>
+        <v>2302.59600554503</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>2805.568476424367</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873065</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698014</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899677</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257054</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913856</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415486</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643409</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302721</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960315</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973146</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982174</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6652,7 +6652,7 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
@@ -6661,10 +6661,10 @@
         <v>1262.182746297368</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519677</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467784</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>393.2994530991701</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>727.1188267890166</v>
+        <v>924.7493799910142</v>
       </c>
       <c r="L32" t="n">
-        <v>1178.153040037425</v>
+        <v>1375.783593239423</v>
       </c>
       <c r="M32" t="n">
-        <v>1711.68494470935</v>
+        <v>1909.315497911347</v>
       </c>
       <c r="N32" t="n">
-        <v>2258.463761768132</v>
+        <v>2456.09431497013</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>2959.066785849467</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456147</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644877</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032365</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.553760997781</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.019203024666</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572846</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873068</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6792,25 +6792,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.547193875145</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351248</v>
       </c>
       <c r="Q33" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590363</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083843</v>
       </c>
       <c r="T33" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U33" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.395255896114</v>
       </c>
       <c r="V33" t="n">
         <v>1794.243147664371</v>
@@ -6819,10 +6819,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730637</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.393991965683</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913845</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415474</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960323</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973153</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498218</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308445</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481265</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167331</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R34" t="n">
         <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052753</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570353</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386256</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519672</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C35" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103807</v>
       </c>
       <c r="D35" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.2565860709</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464975</v>
+        <v>894.1397680464988</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307333</v>
+        <v>581.8252978307346</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.986587710109</v>
+        <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515854</v>
+        <v>3051.821232515856</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.538235362622</v>
       </c>
       <c r="Y35" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960654</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7005,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.9308303909356</v>
+        <v>500.9308303909359</v>
       </c>
       <c r="C37" t="n">
-        <v>430.6660820368721</v>
+        <v>430.6660820368724</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245364</v>
+        <v>280.5494426245366</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159867</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919198</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1379.44877978404</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V37" t="n">
-        <v>1223.435726151997</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150358</v>
+        <v>1131.361425262723</v>
       </c>
       <c r="X37" t="n">
-        <v>706.0290052170185</v>
+        <v>903.3718743647057</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.9078606473319</v>
+        <v>682.5792952211756</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>894.139768046497</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307329</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7196,10 +7196,10 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668174</v>
@@ -7217,7 +7217,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>696.9279421464336</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C40" t="n">
-        <v>626.6631937923701</v>
+        <v>670.6422221586943</v>
       </c>
       <c r="D40" t="n">
-        <v>575.2179889538778</v>
+        <v>520.5255827463585</v>
       </c>
       <c r="E40" t="n">
-        <v>525.9763299453282</v>
+        <v>428.6506527636736</v>
       </c>
       <c r="F40" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G40" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H40" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
         <v>315.6219318279954</v>
@@ -7357,25 +7357,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1735.608663915319</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T40" t="n">
-        <v>1612.513483058689</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U40" t="n">
-        <v>1422.082050758175</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V40" t="n">
-        <v>1266.068997126132</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.323261663015</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X40" t="n">
-        <v>902.0261169725164</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y40" t="n">
-        <v>779.9049724028298</v>
+        <v>922.5554353429975</v>
       </c>
     </row>
     <row r="41">
@@ -7394,52 +7394,52 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464969</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F41" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495727</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810539</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3313.986587710108</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T41" t="n">
-        <v>3206.680274668174</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
         <v>3051.821232515854</v>
@@ -7464,37 +7464,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7521,7 +7521,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
         <v>1779.608347199865</v>
@@ -7530,10 +7530,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>598.2565075725902</v>
+        <v>740.9069705127581</v>
       </c>
       <c r="C43" t="n">
-        <v>527.9917592185267</v>
+        <v>670.6422221586946</v>
       </c>
       <c r="D43" t="n">
-        <v>476.5465543800344</v>
+        <v>619.1970173202023</v>
       </c>
       <c r="E43" t="n">
-        <v>427.3048953714847</v>
+        <v>569.9553583116526</v>
       </c>
       <c r="F43" t="n">
-        <v>379.0863824474178</v>
+        <v>423.0654108137422</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816217</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1279.431587818008</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1123.418534185964</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W43" t="n">
-        <v>932.6727987228469</v>
+        <v>1075.323261663015</v>
       </c>
       <c r="X43" t="n">
-        <v>803.354682398673</v>
+        <v>946.005145338841</v>
       </c>
       <c r="Y43" t="n">
-        <v>681.2335378289864</v>
+        <v>823.8840007691543</v>
       </c>
     </row>
     <row r="44">
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1711.141932470373</v>
+        <v>1711.141932470372</v>
       </c>
       <c r="C44" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103804</v>
       </c>
       <c r="D44" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070897</v>
       </c>
       <c r="E44" t="n">
-        <v>894.1397680464968</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
@@ -7646,25 +7646,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7688,7 +7688,7 @@
         <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362619</v>
       </c>
       <c r="Y44" t="n">
         <v>1999.070337960651</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>599.602264964779</v>
+        <v>740.9069705127581</v>
       </c>
       <c r="C46" t="n">
-        <v>529.3375166107155</v>
+        <v>670.6422221586946</v>
       </c>
       <c r="D46" t="n">
-        <v>477.8923117722233</v>
+        <v>619.1970173202023</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9792181898301</v>
+        <v>569.9553583116526</v>
       </c>
       <c r="F46" t="n">
-        <v>281.7607052657632</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
@@ -7831,13 +7831,13 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1834.280098489163</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
         <v>1266.068997126132</v>
@@ -7846,10 +7846,10 @@
         <v>1075.323261663015</v>
       </c>
       <c r="X46" t="n">
-        <v>847.3337107649977</v>
+        <v>946.005145338841</v>
       </c>
       <c r="Y46" t="n">
-        <v>682.5792952211752</v>
+        <v>823.8840007691543</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430635</v>
+        <v>157.2353108430626</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729014</v>
+        <v>184.4039433729</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389611</v>
+        <v>191.4948909389595</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333075</v>
+        <v>181.0856325333057</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830249</v>
+        <v>179.3553748830231</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554383998</v>
+        <v>182.8301554383981</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586592</v>
+        <v>190.8908035586577</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266129</v>
+        <v>192.0103836266118</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875976</v>
+        <v>112.6562001875971</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372537</v>
+        <v>113.6031223372528</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672279</v>
+        <v>105.9629718672267</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253599</v>
+        <v>104.1013981253585</v>
       </c>
       <c r="N9" t="n">
-        <v>92.3024655867772</v>
+        <v>92.30246558677577</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359742</v>
+        <v>106.8829608359729</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3113487798329</v>
+        <v>105.3113487798318</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615461</v>
+        <v>120.8212784615454</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564661</v>
+        <v>116.1755252564654</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085231</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140781</v>
+        <v>108.4284123140774</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530921</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662707</v>
+        <v>122.5080856662701</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>339.8144253784359</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.01571720695088</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>-4.695133171139787e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>124.5185911550046</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,22 +9881,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>274.835176366543</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.5185911550055</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544135</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10346,10 +10346,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>124.5185911550055</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>187.8883066283053</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>-1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>18.23016254908031</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>379.9558991545852</v>
       </c>
       <c r="G11" t="n">
-        <v>120.6122214735546</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.26761520104949</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.0750253717755</v>
+        <v>224.0750253717757</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>300.8321118830086</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302866</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,13 +23413,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>152.911833594811</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.695326431086</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>64.41418464438073</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>140.2318358683639</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019107</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>54.90007784061368</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>384.0015790663272</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>299.038412962885</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>322.3208221302867</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>152.911833594811</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>54.66523116983475</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>139.1056616719019</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>69.43227382271178</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>62.01200608292103</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890428</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.8028772220488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652885</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>25.92954262631861</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>130.0226869339012</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>177.0998887531831</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>41.67450974811483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -24017,22 +24017,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>35.29247858245688</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>79.1951430489873</v>
+        <v>1.923822258196083</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>295.8358174727501</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-1.4159784583755e-12</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>307228.6270188894</v>
+      </c>
+      <c r="C2" t="n">
         <v>307228.6270188893</v>
       </c>
-      <c r="C2" t="n">
-        <v>307228.6270188892</v>
-      </c>
       <c r="D2" t="n">
-        <v>307237.00117723</v>
+        <v>307237.0011772299</v>
       </c>
       <c r="E2" t="n">
+        <v>273577.5003393657</v>
+      </c>
+      <c r="F2" t="n">
         <v>273577.5003393656</v>
-      </c>
-      <c r="F2" t="n">
-        <v>273577.5003393658</v>
       </c>
       <c r="G2" t="n">
         <v>297949.0579674512</v>
@@ -26332,28 +26332,28 @@
         <v>297949.0579674511</v>
       </c>
       <c r="I2" t="n">
-        <v>307890.6636991065</v>
+        <v>307890.6636991064</v>
       </c>
       <c r="J2" t="n">
         <v>307890.6636991064</v>
       </c>
       <c r="K2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="L2" t="n">
         <v>307890.6636991065</v>
       </c>
-      <c r="L2" t="n">
-        <v>307890.6636991064</v>
-      </c>
       <c r="M2" t="n">
+        <v>307890.6636991063</v>
+      </c>
+      <c r="N2" t="n">
+        <v>307890.6636991067</v>
+      </c>
+      <c r="O2" t="n">
         <v>307890.6636991066</v>
       </c>
-      <c r="N2" t="n">
-        <v>307890.6636991066</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>307890.6636991067</v>
-      </c>
-      <c r="P2" t="n">
-        <v>307890.6636991064</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552184</v>
+        <v>59764.55367552403</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>37580.10929487444</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22821.46782983335</v>
+      </c>
+      <c r="J3" t="n">
+        <v>25409.43302179676</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>37580.10929487409</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22821.4678298336</v>
-      </c>
-      <c r="J3" t="n">
-        <v>25409.43302179704</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>37580.10929487399</v>
-      </c>
       <c r="M3" t="n">
-        <v>202168.0999927243</v>
+        <v>202168.0999927244</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>441649.2499958205</v>
       </c>
       <c r="D4" t="n">
-        <v>421637.938799543</v>
+        <v>421637.9387995422</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362517</v>
+        <v>38804.27401362498</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362513</v>
+        <v>38804.274013625</v>
       </c>
       <c r="G4" t="n">
-        <v>75832.43437506739</v>
+        <v>75832.4343750673</v>
       </c>
       <c r="H4" t="n">
-        <v>75832.43437506737</v>
+        <v>75832.4343750673</v>
       </c>
       <c r="I4" t="n">
         <v>88045.16093451306</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.1594017309</v>
+        <v>84858.15940173082</v>
       </c>
       <c r="K4" t="n">
-        <v>84858.15940173093</v>
+        <v>84858.15940173082</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173082</v>
+        <v>84858.15940173085</v>
       </c>
       <c r="M4" t="n">
+        <v>90964.0109881571</v>
+      </c>
+      <c r="N4" t="n">
+        <v>90964.01098815708</v>
+      </c>
+      <c r="O4" t="n">
         <v>90964.01098815711</v>
       </c>
-      <c r="N4" t="n">
-        <v>90964.01098815707</v>
-      </c>
-      <c r="O4" t="n">
-        <v>90964.01098815708</v>
-      </c>
       <c r="P4" t="n">
-        <v>90964.01098815713</v>
+        <v>90964.0109881571</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186639</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482643</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521488</v>
+        <v>80518.64312521491</v>
       </c>
       <c r="H5" t="n">
         <v>80518.64312521491</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184213</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624987</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624985</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624984</v>
-      </c>
       <c r="O5" t="n">
-        <v>82518.59730624984</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
         <v>82518.59730624985</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-168048.2229769312</v>
+        <v>-168052.6365547992</v>
       </c>
       <c r="C6" t="n">
-        <v>-168048.2229769313</v>
+        <v>-168052.6365547993</v>
       </c>
       <c r="D6" t="n">
-        <v>-209314.3967297011</v>
+        <v>-209318.7544798486</v>
       </c>
       <c r="E6" t="n">
-        <v>-931035.236202719</v>
+        <v>-931263.9906251151</v>
       </c>
       <c r="F6" t="n">
-        <v>158203.7359609143</v>
+        <v>157974.9815385161</v>
       </c>
       <c r="G6" t="n">
-        <v>104017.8711722949</v>
+        <v>103951.5938007502</v>
       </c>
       <c r="H6" t="n">
-        <v>141597.9804671688</v>
+        <v>141531.7030956245</v>
       </c>
       <c r="I6" t="n">
-        <v>111287.5066329177</v>
+        <v>111287.5066329179</v>
       </c>
       <c r="J6" t="n">
-        <v>108245.1296007724</v>
+        <v>108245.1296007728</v>
       </c>
       <c r="K6" t="n">
-        <v>133654.5626225694</v>
+        <v>133654.5626225693</v>
       </c>
       <c r="L6" t="n">
         <v>96074.45332769543</v>
       </c>
       <c r="M6" t="n">
-        <v>-67760.0445880247</v>
+        <v>-67760.04458802514</v>
       </c>
       <c r="N6" t="n">
+        <v>134408.0554046998</v>
+      </c>
+      <c r="O6" t="n">
+        <v>134408.0554046996</v>
+      </c>
+      <c r="P6" t="n">
         <v>134408.0554046997</v>
-      </c>
-      <c r="O6" t="n">
-        <v>134408.0554046998</v>
-      </c>
-      <c r="P6" t="n">
-        <v>134408.0554046994</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="J2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="K2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859256</v>
       </c>
-      <c r="K2" t="n">
-        <v>46.97513661859261</v>
-      </c>
-      <c r="L2" t="n">
-        <v>46.97513661859249</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="3">
@@ -26741,19 +26741,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790531</v>
+        <v>69.78465283790787</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="I4" t="n">
+        <v>917.2219352810304</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1014.336461208614</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>917.2219352810297</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1014.336461208615</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="N4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951252</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,22 +26963,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790531</v>
+        <v>69.78465283790787</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.992047755391</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873693</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758496</v>
+        <v>97.11452592758405</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959709</v>
+        <v>648.4664495959715</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434005</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780171</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036573</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
-        <v>221.8677799448432</v>
+        <v>221.8677799448431</v>
       </c>
       <c r="U8" t="n">
         <v>251.3232096024012</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672114</v>
+        <v>84.22861846672096</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987533</v>
+        <v>90.83829126987499</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241797</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519098</v>
+        <v>84.46220888519065</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990564</v>
+        <v>7.649035050990028</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317068</v>
+        <v>75.62456067317029</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437878</v>
+        <v>171.6351144437876</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
         <v>227.4079043982189</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712647</v>
+        <v>26.9201465871263</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.9201465871263</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075679</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="E19" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="X19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="S22" t="n">
-        <v>11.49558901075531</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075679</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="T25" t="n">
-        <v>11.49558901075522</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.4955890107575</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571904</v>
+        <v>73.89528320571891</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859233</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859261</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859352</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U37" t="n">
-        <v>46.72521440565305</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>55.47778196371112</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="39">
@@ -30378,19 +30378,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810501</v>
+        <v>55.47778196371115</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -30399,7 +30399,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30429,25 +30429,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="X40" t="n">
-        <v>54.14548214544376</v>
+        <v>97.68472022810495</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810495</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,22 +30615,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810501</v>
+        <v>54.14548214544391</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>45.392914587386</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810501</v>
+        <v>54.14548214544385</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810501</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810501</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y46" t="n">
-        <v>55.47778196371056</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413277</v>
+        <v>0.280541317941338</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366623</v>
+        <v>2.873093772366728</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993305</v>
+        <v>10.81556915993344</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362278</v>
+        <v>23.81059368362365</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207919</v>
+        <v>35.6859076720805</v>
       </c>
       <c r="L8" t="n">
-        <v>44.2715240310261</v>
+        <v>44.27152403102773</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396519</v>
+        <v>49.26060069396699</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356599</v>
+        <v>50.05768871356783</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328691</v>
+        <v>47.26805598328864</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661038</v>
+        <v>40.34219219661185</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783657</v>
+        <v>30.29530624783768</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313194</v>
+        <v>17.62255356313259</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588011</v>
+        <v>6.392835282588245</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288163</v>
+        <v>1.228069619288207</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530621</v>
+        <v>0.02244330543530703</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796454</v>
+        <v>0.1501028381796509</v>
       </c>
       <c r="H9" t="n">
-        <v>1.44967741084026</v>
+        <v>1.449677410840313</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693932</v>
+        <v>5.168014384694121</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906904</v>
+        <v>14.18142647906956</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710529</v>
+        <v>24.23831663710617</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264625</v>
+        <v>32.59140791264745</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665839</v>
+        <v>38.03263579665978</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655611</v>
+        <v>39.03924649655754</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847028</v>
+        <v>35.71328360847158</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449738</v>
+        <v>28.66305863449843</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447544</v>
+        <v>19.16049562447614</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767811</v>
+        <v>9.319542882768154</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608762</v>
+        <v>2.788094384608864</v>
       </c>
       <c r="T9" t="n">
-        <v>0.605019773189009</v>
+        <v>0.6050197731890312</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345096</v>
+        <v>0.009875186722345457</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486817</v>
+        <v>0.1258411772486863</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811007</v>
+        <v>1.118842466811048</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078538</v>
+        <v>3.784387403078677</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481796</v>
+        <v>8.896971231482121</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489229</v>
+        <v>14.62045677489282</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477219</v>
+        <v>18.70915102477288</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908198</v>
+        <v>19.72617653908271</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115509</v>
+        <v>19.2571321511558</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875003</v>
+        <v>17.78707839875069</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287691</v>
+        <v>15.21991838287747</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.5374825785237</v>
+        <v>10.53748257852409</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381632</v>
+        <v>5.658276933381839</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233843</v>
+        <v>2.193068516233923</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062549</v>
+        <v>0.5376850300625686</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564464</v>
+        <v>0.006864064213564716</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -32075,7 +32075,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I17" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.610358400291</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,43 +32385,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I20" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987471</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,43 +32622,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -33023,7 +33023,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33041,7 +33041,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
@@ -33281,7 +33281,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33755,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34226,7 +34226,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
         <v>299.2156706987487</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019271</v>
+        <v>72.49856320019256</v>
       </c>
       <c r="K13" t="n">
-        <v>232.9678061314461</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573246</v>
+        <v>346.6775187573245</v>
       </c>
       <c r="M13" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806102</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P13" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019254</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314459</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573244</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806103</v>
+        <v>374.5535259806101</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546664</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097662</v>
+        <v>329.2732768097661</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322369</v>
+        <v>261.8772177322367</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.31438512502</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859608</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127256</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36370,13 +36370,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>847.867426266655</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>268.8100220106704</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
         <v>59.61319854222478</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>315.3055921237172</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36601,22 +36601,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>827.1370117794545</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597723</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36689,7 +36689,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637028</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>315.3055921237181</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
@@ -36847,7 +36847,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737854</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
@@ -36929,7 +36929,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
         <v>366.7325087887907</v>
@@ -36999,16 +36999,16 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>315.3055921237181</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
         <v>455.5901143923322</v>
@@ -37084,13 +37084,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>586.6502928476772</v>
       </c>
       <c r="Q32" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165975</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
         <v>391.8320827861326</v>
@@ -37242,10 +37242,10 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.787000968712</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37403,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222434</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865553991</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37874,7 +37874,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
         <v>159.2338966127272</v>
@@ -38035,7 +38035,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.794304803719</v>
       </c>
       <c r="R44" t="n">
         <v>59.61319854222478</v>
